--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9">
         <v>44</v>
-      </c>
-      <c r="B9">
-        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>40</v>
-      </c>
-      <c r="B10">
-        <v>24</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -531,12 +531,45 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,171 +405,6 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>26</v>
-      </c>
-      <c r="C17">
         <v>1</v>
       </c>
     </row>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,6 +405,83 @@
         <v>50</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>49</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>random_col</t>
   </si>
   <si>
     <t>random_row_list</t>
+  </si>
+  <si>
+    <t>total_num</t>
+  </si>
+  <si>
+    <t>total_move</t>
   </si>
   <si>
     <t>random_signal</t>
@@ -380,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>50</v>
       </c>
@@ -405,83 +417,335 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>53</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9">
         <v>53</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>53</v>
       </c>
-      <c r="B6">
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>49</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>54</v>
-      </c>
-      <c r="B8">
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>44</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>49</v>
-      </c>
-      <c r="C9">
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
     </row>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -22,10 +22,10 @@
     <t>random_row_list</t>
   </si>
   <si>
-    <t>total_num</t>
+    <t>total_move</t>
   </si>
   <si>
-    <t>total_move</t>
+    <t>total_num</t>
   </si>
   <si>
     <t>random_signal</t>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,16 +428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -445,307 +445,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>53</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>58</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>51</v>
-      </c>
-      <c r="B8">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>44</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>57</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>64</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>57</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>48</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>47</v>
-      </c>
-      <c r="B19">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>36</v>
-      </c>
-      <c r="B21">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
         <v>1</v>
       </c>
     </row>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +417,10 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,16 +428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -445,19 +445,138 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0.4430379746835443</v>
       </c>
     </row>
   </sheetData>

--- a/random_walk_2.xlsx
+++ b/random_walk_2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,16 +428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -445,16 +445,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
+        <v>83</v>
+      </c>
+      <c r="B4">
         <v>81</v>
-      </c>
-      <c r="B4">
-        <v>74</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -462,16 +462,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -479,104 +479,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>69</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>57</v>
-      </c>
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0.4430379746835443</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
